--- a/Producao/Combate_1kg/materiais.xlsx
+++ b/Producao/Combate_1kg/materiais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\UnB\Titans\Titans\Producao\Combate_1kg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Google Drive\UnB\Titans\Titans\Producao\Combate_1kg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Rodas</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>mancal</t>
+  </si>
+  <si>
+    <t>MODELO 1</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>PETG</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AÇO</t>
+  </si>
+  <si>
+    <t>POLI</t>
+  </si>
+  <si>
+    <t>12(cada)</t>
+  </si>
+  <si>
+    <t>m pesado</t>
+  </si>
+  <si>
+    <t>m leve</t>
   </si>
 </sst>
 </file>
@@ -135,10 +162,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,15 +211,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7573B177-82BE-4856-BCD8-CE14C405169B}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +549,7 @@
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -531,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -552,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -594,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,7 +648,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,11 +665,11 @@
         <v>75</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -667,7 +706,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -698,7 +737,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -707,7 +746,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -716,7 +755,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -733,15 +772,18 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -754,8 +796,26 @@
       <c r="E15">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15">
+        <v>98</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -774,8 +834,26 @@
       <c r="G16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -788,8 +866,14 @@
       <c r="E17">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -802,8 +886,14 @@
       <c r="E18">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -813,71 +903,133 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>144</v>
+      </c>
+      <c r="I21">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25">
         <f>SUM(B13:B24)</f>
         <v>1212</v>
       </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>154</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
-      </c>
-      <c r="G22">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>34</v>
-      </c>
-      <c r="G23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1142</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25">
+        <v>1005</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E26">
         <f>SUM(B13,E15:E23)</f>
         <v>1372</v>
@@ -887,7 +1039,10 @@
   <sortState ref="A2:B9">
     <sortCondition ref="A2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{A4F87127-3794-4288-9E86-AB04D532F17E}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Producao/Combate_1kg/materiais.xlsx
+++ b/Producao/Combate_1kg/materiais.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Google Drive\UnB\Titans\Titans\Producao\Combate_1kg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Modelo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" xr2:uid="{8576ED59-F967-4361-A21E-0FA1E22CD9A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,23 +146,23 @@
     <t>POLI</t>
   </si>
   <si>
-    <t>12(cada)</t>
-  </si>
-  <si>
     <t>m pesado</t>
   </si>
   <si>
     <t>m leve</t>
+  </si>
+  <si>
+    <t>16(cada)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,12 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -535,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7573B177-82BE-4856-BCD8-CE14C405169B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,19 +806,19 @@
         <v>133</v>
       </c>
       <c r="I15">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
         <v>36</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -835,19 +844,19 @@
         <v>32</v>
       </c>
       <c r="I16">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
       </c>
       <c r="M16">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
@@ -941,19 +950,19 @@
         <v>144</v>
       </c>
       <c r="I21">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
         <v>36</v>
       </c>
       <c r="M21">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N21" t="s">
         <v>39</v>
@@ -973,19 +982,19 @@
         <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
         <v>35</v>
       </c>
       <c r="K22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
         <v>36</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
         <v>39</v>
@@ -1016,16 +1025,16 @@
         <v>1212</v>
       </c>
       <c r="I25">
-        <v>1142</v>
+        <v>1259</v>
       </c>
       <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>1093</v>
+      </c>
+      <c r="M25" t="s">
         <v>41</v>
-      </c>
-      <c r="L25">
-        <v>1005</v>
-      </c>
-      <c r="M25" t="s">
-        <v>42</v>
       </c>
       <c r="N25" s="3"/>
     </row>
@@ -1034,13 +1043,14 @@
         <f>SUM(B13,E15:E23)</f>
         <v>1372</v>
       </c>
+      <c r="M26" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:B9">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{A4F87127-3794-4288-9E86-AB04D532F17E}"/>
+    <hyperlink ref="G6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
